--- a/Fase3_ValueBettingAnalysis/KNNOutliers/PercentagePointDifference/50pointDifferenceOutliers.xlsx
+++ b/Fase3_ValueBettingAnalysis/KNNOutliers/PercentagePointDifference/50pointDifferenceOutliers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE43"/>
+  <dimension ref="A1:AH43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,6 +589,21 @@
           <t>DiffA</t>
         </is>
       </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>%DiffH</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>%DiffD</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>%DiffA</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -692,6 +707,15 @@
       <c r="AE2" t="n">
         <v>-0.1392387200440515</v>
       </c>
+      <c r="AF2" t="n">
+        <v>261.8808734230747</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-90.36177304850587</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-34.98396227006598</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -795,6 +819,15 @@
       <c r="AE3" t="n">
         <v>-0.2194912927044036</v>
       </c>
+      <c r="AF3" t="n">
+        <v>193.5067766979248</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>-91.39852989904119</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>-84.34066324358596</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -898,6 +931,15 @@
       <c r="AE4" t="n">
         <v>-0.1550886003995883</v>
       </c>
+      <c r="AF4" t="n">
+        <v>189.9623789697343</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-93.2017343919541</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-53.8182239374033</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1001,6 +1043,15 @@
       <c r="AE5" t="n">
         <v>-0.4334349742683697</v>
       </c>
+      <c r="AF5" t="n">
+        <v>376.146181719355</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-89.64708157335758</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-73.16398145128964</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1104,6 +1155,15 @@
       <c r="AE6" t="n">
         <v>-0.2173900289732295</v>
       </c>
+      <c r="AF6" t="n">
+        <v>199.2320175751284</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>-88.32753755093583</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>-77.14487091161547</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1207,6 +1267,15 @@
       <c r="AE7" t="n">
         <v>-0.1762133946199751</v>
       </c>
+      <c r="AF7" t="n">
+        <v>256.8211614598018</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-86.36668697492451</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-53.78481682464699</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1310,6 +1379,15 @@
       <c r="AE8" t="n">
         <v>-0.2050321663382946</v>
       </c>
+      <c r="AF8" t="n">
+        <v>228.3609094170749</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-92.88601650191526</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-74.07905406016856</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1413,6 +1491,15 @@
       <c r="AE9" t="n">
         <v>-0.221462641859359</v>
       </c>
+      <c r="AF9" t="n">
+        <v>211.6354706897885</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>-89.74475817717705</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>-74.72340595787426</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1516,6 +1603,15 @@
       <c r="AE10" t="n">
         <v>-0.2142835946419435</v>
       </c>
+      <c r="AF10" t="n">
+        <v>339.0720019100143</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>-90.9752779679102</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>-51.71372408027244</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1619,6 +1715,15 @@
       <c r="AE11" t="n">
         <v>-0.2532190739151223</v>
       </c>
+      <c r="AF11" t="n">
+        <v>224.1499581170722</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>-99.43319744862757</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>-51.68859345704882</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1722,6 +1827,15 @@
       <c r="AE12" t="n">
         <v>-0.2108019145061518</v>
       </c>
+      <c r="AF12" t="n">
+        <v>311.705692251894</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>-93.83987232157619</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>-52.30796975045925</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1825,6 +1939,15 @@
       <c r="AE13" t="n">
         <v>-0.162990210070887</v>
       </c>
+      <c r="AF13" t="n">
+        <v>277.0747178228872</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>-94.62539114824929</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>-46.4697082287166</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1928,6 +2051,15 @@
       <c r="AE14" t="n">
         <v>-0.137302284242757</v>
       </c>
+      <c r="AF14" t="n">
+        <v>234.0213713020274</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>-88.75726544523889</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>-44.08643482539233</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2031,6 +2163,15 @@
       <c r="AE15" t="n">
         <v>-0.2098710886663927</v>
       </c>
+      <c r="AF15" t="n">
+        <v>290.727837225237</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>-87.77403788631516</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>-51.08344690446457</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2134,6 +2275,15 @@
       <c r="AE16" t="n">
         <v>-0.1157332362000568</v>
       </c>
+      <c r="AF16" t="n">
+        <v>252.7145230494907</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>-93.06265820652769</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>-29.78788541938439</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2237,6 +2387,15 @@
       <c r="AE17" t="n">
         <v>-0.1588060272747067</v>
       </c>
+      <c r="AF17" t="n">
+        <v>271.9673863253042</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>-90.51522160416096</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>-43.93490094448102</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2340,6 +2499,15 @@
       <c r="AE18" t="n">
         <v>-0.2326434661586784</v>
       </c>
+      <c r="AF18" t="n">
+        <v>131.5324407218797</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>-96.83681357671506</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>-71.12339073805352</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2443,6 +2611,15 @@
       <c r="AE19" t="n">
         <v>-0.1053086881080424</v>
       </c>
+      <c r="AF19" t="n">
+        <v>276.2007406211466</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>-91.71859035245284</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>-27.78480940497407</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2546,6 +2723,15 @@
       <c r="AE20" t="n">
         <v>-0.1111435695913098</v>
       </c>
+      <c r="AF20" t="n">
+        <v>180.9978571261249</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>-95.27854842299925</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>-39.31099669572695</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2649,6 +2835,15 @@
       <c r="AE21" t="n">
         <v>-0.2456388070673214</v>
       </c>
+      <c r="AF21" t="n">
+        <v>261.8897941494533</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>-82.6634022810177</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>-68.35626731399722</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2752,6 +2947,15 @@
       <c r="AE22" t="n">
         <v>-0.1442084739457307</v>
       </c>
+      <c r="AF22" t="n">
+        <v>214.182104475733</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>-90.3794195006073</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>-46.50870250355023</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2855,6 +3059,15 @@
       <c r="AE23" t="n">
         <v>-0.1949391230037612</v>
       </c>
+      <c r="AF23" t="n">
+        <v>176.5982549368377</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>-90.84717698752023</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>-76.26268766776583</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2958,6 +3171,15 @@
       <c r="AE24" t="n">
         <v>-0.1920151140143813</v>
       </c>
+      <c r="AF24" t="n">
+        <v>242.2426143009748</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>-88.44235674390052</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>-55.91543904870636</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3061,6 +3283,15 @@
       <c r="AE25" t="n">
         <v>-0.115622719570749</v>
       </c>
+      <c r="AF25" t="n">
+        <v>141.236184116541</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>-92.42999412255605</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>-50.98258809044356</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3164,6 +3395,15 @@
       <c r="AE26" t="n">
         <v>-0.1270019742368936</v>
       </c>
+      <c r="AF26" t="n">
+        <v>275.8830799435723</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>-91.61673194677059</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>-34.90382788273812</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3267,6 +3507,15 @@
       <c r="AE27" t="n">
         <v>-0.2344811894294823</v>
       </c>
+      <c r="AF27" t="n">
+        <v>367.4019808929128</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>-89.24634136561629</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>-59.31013790089549</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3370,6 +3619,15 @@
       <c r="AE28" t="n">
         <v>-0.0920059604113527</v>
       </c>
+      <c r="AF28" t="n">
+        <v>210.8182737937491</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>-89.24213406471141</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>-31.23297279904978</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3473,6 +3731,15 @@
       <c r="AE29" t="n">
         <v>-0.1359950118690802</v>
       </c>
+      <c r="AF29" t="n">
+        <v>242.6350160246483</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>-89.41497700893134</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>-41.96668509543751</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3576,6 +3843,15 @@
       <c r="AE30" t="n">
         <v>-0.1812402079678075</v>
       </c>
+      <c r="AF30" t="n">
+        <v>322.1288059541886</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>-87.57071627901814</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>-44.7545117511434</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3679,6 +3955,15 @@
       <c r="AE31" t="n">
         <v>-0.1712775061101476</v>
       </c>
+      <c r="AF31" t="n">
+        <v>329.1155769941539</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>-85.92549778231641</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>-43.97530844484993</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3782,6 +4067,15 @@
       <c r="AE32" t="n">
         <v>-0.1189160742106422</v>
       </c>
+      <c r="AF32" t="n">
+        <v>194.5052874776479</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>-95.29776635192152</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>-39.06261590513967</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3885,6 +4179,15 @@
       <c r="AE33" t="n">
         <v>-0.1075115143147909</v>
       </c>
+      <c r="AF33" t="n">
+        <v>196.8572419465419</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>-88.25182925843784</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>-39.81373284404977</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3988,6 +4291,15 @@
       <c r="AE34" t="n">
         <v>-0.1818632369869854</v>
       </c>
+      <c r="AF34" t="n">
+        <v>237.2841103314693</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>-87.39030151799602</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>-45.79190208237866</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4091,6 +4403,15 @@
       <c r="AE35" t="n">
         <v>-0.1739157258655598</v>
       </c>
+      <c r="AF35" t="n">
+        <v>138.7212513060598</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>-86.25739678093531</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>-72.22711403888286</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4194,6 +4515,15 @@
       <c r="AE36" t="n">
         <v>-0.1735502701757607</v>
       </c>
+      <c r="AF36" t="n">
+        <v>270.2554003858643</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>-92.06770804293187</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>-39.74470862931712</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4297,6 +4627,15 @@
       <c r="AE37" t="n">
         <v>-0.2285108615769637</v>
       </c>
+      <c r="AF37" t="n">
+        <v>321.3234363524414</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>-90.30526312158544</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>-57.96141144751466</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4400,6 +4739,15 @@
       <c r="AE38" t="n">
         <v>-0.1877532692125904</v>
       </c>
+      <c r="AF38" t="n">
+        <v>325.3558152013936</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>-89.86913852753439</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>-41.65664756921407</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4503,6 +4851,15 @@
       <c r="AE39" t="n">
         <v>-0.1091654443096691</v>
       </c>
+      <c r="AF39" t="n">
+        <v>272.534721322939</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>-94.75176009303716</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>-30.7420311204459</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4606,6 +4963,15 @@
       <c r="AE40" t="n">
         <v>-0.1484543449327288</v>
       </c>
+      <c r="AF40" t="n">
+        <v>250.4258121578041</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>-94.80429110104141</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>-43.97332741069378</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4709,6 +5075,15 @@
       <c r="AE41" t="n">
         <v>-0.1431319287023629</v>
       </c>
+      <c r="AF41" t="n">
+        <v>154.38825370788</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>-89.25646941425441</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>-64.0757718791136</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4812,6 +5187,15 @@
       <c r="AE42" t="n">
         <v>-0.1648396983570939</v>
       </c>
+      <c r="AF42" t="n">
+        <v>132.3123128041287</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>-86.93828778894165</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>-82.81855035184394</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4914,6 +5298,15 @@
       </c>
       <c r="AE43" t="n">
         <v>-0.172290023786222</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>302.5597652971716</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>-90.31276203718144</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>-40.70025732320579</v>
       </c>
     </row>
   </sheetData>
